--- a/SenderRank.xlsx
+++ b/SenderRank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Rank</t>
     <phoneticPr fontId="1"/>
@@ -52,111 +52,120 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Papal nuncio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Papal Nuncio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pro-nuncio</t>
+  </si>
+  <si>
+    <t>Pro nuncio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pro-Nuncio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pro-nuncio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High commissioner</t>
+  </si>
+  <si>
+    <t>High Commissioner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Secretary of Peoples Bureau</t>
+  </si>
+  <si>
+    <t>Minister</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Envoy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Internuncio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chargé d’affaires a.i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Charge d’aﬀairs ad interim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Charge d’aﬀairs a.i.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Charge d’aﬀairs ad hoc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chargé d’affaires en titre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Charge d’aﬀairs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Charge d’aﬀaires et pied</t>
+  </si>
+  <si>
+    <t>Consul</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Consul General</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Unknown or missing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Others</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apostolic delegate</t>
+  </si>
+  <si>
+    <t>commissioner</t>
+  </si>
+  <si>
+    <t>Commissioner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>De facto diplomatic mission</t>
+  </si>
+  <si>
     <t>papal nuncio</t>
-  </si>
-  <si>
-    <t>Papal nuncio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Papal Nuncio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pro-nuncio</t>
-  </si>
-  <si>
-    <t>Pro nuncio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pro-Nuncio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pro-nuncio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>High commissioner</t>
-  </si>
-  <si>
-    <t>High Commissioner</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Secretary of Peoples Bureau</t>
-  </si>
-  <si>
-    <t>Minister</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Envoy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Internuncio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chargé d’affaires a.i</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Charge d’aﬀairs ad interim</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Charge d’aﬀairs a.i.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Charge d’aﬀairs ad hoc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chargé d’affaires en titre</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Charge d’aﬀairs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Charge d’aﬀaires et pied</t>
-  </si>
-  <si>
-    <t>Consul</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Consul General</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Unknown or missing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Others</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Apostolic delegate</t>
-  </si>
-  <si>
-    <t>commissioner</t>
-  </si>
-  <si>
-    <t>Commissioner</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>De facto diplomatic mission</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chargé d'affaires a.i.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chargé d’affaires a.i.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C4425B-1F16-4CB3-A633-2B075C82D951}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -581,7 +590,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -589,7 +598,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -597,7 +606,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -605,7 +614,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -613,7 +622,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -621,7 +630,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -629,7 +638,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -637,7 +646,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -645,7 +654,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -653,7 +662,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -661,7 +670,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -669,7 +678,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -677,7 +686,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -685,7 +694,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -693,7 +702,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -701,7 +710,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -709,7 +718,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -717,7 +726,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -725,7 +734,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -733,15 +742,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -749,15 +758,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -765,31 +774,31 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -797,7 +806,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -805,7 +814,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -813,15 +822,23 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>